--- a/download/IEC_protocol.xlsx
+++ b/download/IEC_protocol.xlsx
@@ -289,6 +289,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -303,18 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,17 +638,17 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="8" customWidth="1"/>
     <col min="2" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2">
@@ -689,7 +689,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
@@ -706,24 +706,24 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="26.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4"/>
@@ -741,7 +741,7 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3"/>
@@ -759,7 +759,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="26.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3"/>
@@ -777,25 +777,25 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3"/>
@@ -813,7 +813,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3"/>
@@ -831,25 +831,25 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
@@ -867,7 +867,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5"/>
@@ -885,7 +885,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
@@ -903,7 +903,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
@@ -921,7 +921,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3"/>
@@ -939,7 +939,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3"/>
@@ -957,7 +957,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3"/>
@@ -975,25 +975,25 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3"/>
@@ -1010,24 +1010,24 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="3"/>
@@ -1044,24 +1044,24 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="5"/>
@@ -1078,7 +1078,7 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="5"/>
@@ -1095,24 +1095,24 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="3"/>
@@ -1129,7 +1129,7 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
@@ -1146,24 +1146,24 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="3"/>
@@ -1180,7 +1180,7 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3"/>
@@ -1197,7 +1197,7 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="3"/>
@@ -1214,19 +1214,19 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1247,7 +1247,7 @@
 &amp;"-,Fett"&amp;K6E0D5FIon-exchange chromatography protocol for separating lead</oddHeader>
     <oddFooter>&amp;L&amp;K6E0D5FCreated by Sabine Klein, Thomas Rose
 Last updated: &amp;D&amp;C&amp;9This work is licensed under a Creative Commons 
-Attribution 4.0 International License.&amp;R&amp;G</oddFooter>
+Attribution-ShareAlike 4.0 International License.&amp;R&amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
